--- a/data/georgia_census/mcxeta-mtianeti/mcxeta/age_dependency.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/mcxeta/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E1DFDD-85ED-4779-8AF8-1B0E9F1EA6CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1918D649-669A-40D1-AA5B-EF2F47E2DC8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6898C7C2-A360-4AE0-B3AB-78E4A44FC470}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA28B109-6EC2-4B97-B455-02966C2F1E00}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B653877E-171B-4194-8FA3-856101076003}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B22F528-3155-47DF-BD85-4F43EC14F96F}"/>
 </file>